--- a/templates/mailsToFlow1.xlsx
+++ b/templates/mailsToFlow1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwrwnlwy/projects/anomalies/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E133169-DBC8-B141-9E0F-6AE8F7A321AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB53C57-BF81-3B4E-BAD4-6B655E9DBF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18000" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="341">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -703,9 +703,6 @@
     <t>treetoscope.com</t>
   </si>
   <si>
-    <t>keren.h@treetoscope.com;alon.fux@treetoscope.com</t>
-  </si>
-  <si>
     <t>TreeToScope team</t>
   </si>
   <si>
@@ -715,9 +712,6 @@
     <t>shlomo-sixt-sandbox</t>
   </si>
   <si>
-    <t>leond@shlomo.co.il;igorh@shlomo.co.il</t>
-  </si>
-  <si>
     <t>Igor and Leonid</t>
   </si>
   <si>
@@ -1046,6 +1040,9 @@
   </si>
   <si>
     <t>yossi@tracklease.com</t>
+  </si>
+  <si>
+    <t>Leonidg@Shlomo.co.il;igorh@shlomo.co.il</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2743,77 +2740,77 @@
         <v>226</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E97" t="s">
         <v>227</v>
-      </c>
-      <c r="E97" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" t="s">
         <v>229</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E98" t="s">
         <v>230</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E98" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C101" t="s">
+      <c r="E101" t="s">
         <v>238</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E101" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C102" t="s">
-        <v>242</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="E102" t="s">
         <v>115</v>
@@ -2821,186 +2818,186 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E103" t="s">
         <v>245</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E103" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>249</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E104" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C107" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>257</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E107" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>261</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E108" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E110" t="s">
         <v>267</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E110" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C111" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E111" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C112" t="s">
+      <c r="E112" t="s">
         <v>273</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E112" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E113" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C114" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C115" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C117" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C118" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>60</v>
@@ -3011,185 +3008,185 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C120" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C121" t="s">
+        <v>291</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
         <v>293</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="F121" t="s">
         <v>294</v>
-      </c>
-      <c r="E121" t="s">
-        <v>295</v>
-      </c>
-      <c r="F121" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C122" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E122" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C123" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E123" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C124" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E124" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C125" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E125" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C126" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E126" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C128" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B130" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C130" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C131" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C132" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C133" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C134" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C135" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C136" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C137" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3197,40 +3194,40 @@
         <v>195</v>
       </c>
       <c r="C138" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C139" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B140" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C140" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B141" s="5">
         <v>170744924094</v>
       </c>
       <c r="C141" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E141" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3238,13 +3235,13 @@
         <v>728009587795</v>
       </c>
       <c r="C142" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E142" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -3252,13 +3249,13 @@
         <v>941677598037</v>
       </c>
       <c r="C143" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E143" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3266,13 +3263,13 @@
         <v>579201838494</v>
       </c>
       <c r="C144" t="s">
+        <v>337</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="E144" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
@@ -3280,18 +3277,22 @@
         <v>560428933869</v>
       </c>
       <c r="C145" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E145" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D41" r:id="rId1" xr:uid="{DF273828-6A49-EA43-9335-A5EBEF245073}"/>
+    <hyperlink ref="D100" r:id="rId2" xr:uid="{329FED7F-47D1-3549-B2C9-0FA567100759}"/>
+    <hyperlink ref="D99" r:id="rId3" xr:uid="{0173A0A0-0FF5-1D4C-8BAE-411F0C33C93C}"/>
+    <hyperlink ref="D98" r:id="rId4" xr:uid="{15EA03BF-2AB5-BF44-9725-85693FCCA5C9}"/>
+    <hyperlink ref="D97" r:id="rId5" xr:uid="{F0EC2A9A-68A6-234C-BA5E-A838A525542A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/templates/mailsToFlow1.xlsx
+++ b/templates/mailsToFlow1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwrwnlwy/projects/anomalies/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB53C57-BF81-3B4E-BAD4-6B655E9DBF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715D8F17-8649-5749-A77C-8A53FD26950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18000" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="363">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Genoox Prod Root</t>
   </si>
   <si>
-    <t>105221511205</t>
-  </si>
-  <si>
     <t>Imagry LTD</t>
   </si>
   <si>
@@ -613,12 +610,6 @@
     <t>wallter2018</t>
   </si>
   <si>
-    <t>yoavb@wallter.com</t>
-  </si>
-  <si>
-    <t>Yoav</t>
-  </si>
-  <si>
     <t>279988470331</t>
   </si>
   <si>
@@ -637,9 +628,6 @@
     <t>Yes team</t>
   </si>
   <si>
-    <t>€</t>
-  </si>
-  <si>
     <t>609110638054</t>
   </si>
   <si>
@@ -652,9 +640,6 @@
     <t>yes-sso</t>
   </si>
   <si>
-    <t>727260607304</t>
-  </si>
-  <si>
     <t>64335569815</t>
   </si>
   <si>
@@ -1043,6 +1028,87 @@
   </si>
   <si>
     <t>Leonidg@Shlomo.co.il;igorh@shlomo.co.il</t>
+  </si>
+  <si>
+    <t>Ceragon</t>
+  </si>
+  <si>
+    <t>Ceragon Networks Ltd (Management)</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>ceragon-netmaster</t>
+  </si>
+  <si>
+    <t>Ceragon Audit</t>
+  </si>
+  <si>
+    <t>'373352902372</t>
+  </si>
+  <si>
+    <t>amirk@ceragon.com</t>
+  </si>
+  <si>
+    <t>'385000657591</t>
+  </si>
+  <si>
+    <t>'623705168421</t>
+  </si>
+  <si>
+    <t>wallter-data</t>
+  </si>
+  <si>
+    <t>itshaka@wallter.com,yoavb@wallter.com</t>
+  </si>
+  <si>
+    <t>wallter-dev</t>
+  </si>
+  <si>
+    <t>wallter-dev-legacy</t>
+  </si>
+  <si>
+    <t>wallter-prod</t>
+  </si>
+  <si>
+    <t>wallter-test</t>
+  </si>
+  <si>
+    <t>Wallter Payments (Management)</t>
+  </si>
+  <si>
+    <t>wallter</t>
+  </si>
+  <si>
+    <t>slack</t>
+  </si>
+  <si>
+    <t>Yoav and Itshak</t>
+  </si>
+  <si>
+    <t>Dor.Yehoshua@abra.co.il</t>
+  </si>
+  <si>
+    <t>Eitans@abra-it.com</t>
+  </si>
+  <si>
+    <t>eyal.stoler@abra-it.com</t>
+  </si>
+  <si>
+    <t>Shaked.Gofer@abra-it.com</t>
+  </si>
+  <si>
+    <t>Roee.Jukin@abra.co.il</t>
+  </si>
+  <si>
+    <t>Snir.Gridish@abra-it.com</t>
+  </si>
+  <si>
+    <t>Matan.Ganon@abra-it.com</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1426,15 +1492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F145"/>
+  <dimension ref="A2:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1925,6 +1992,9 @@
       <c r="C35" t="s">
         <v>84</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
@@ -1933,6 +2003,9 @@
       <c r="C36" t="s">
         <v>86</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
@@ -1941,6 +2014,9 @@
       <c r="C37" t="s">
         <v>88</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
@@ -1949,1068 +2025,1074 @@
       <c r="C38" t="s">
         <v>90</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5">
+        <v>105221511205</v>
+      </c>
+      <c r="C39" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" t="s">
         <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
         <v>95</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" t="s">
         <v>97</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
         <v>99</v>
       </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
       <c r="D41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
         <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
         <v>101</v>
       </c>
-      <c r="C42" t="s">
-        <v>102</v>
-      </c>
       <c r="D42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
         <v>97</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" t="s">
         <v>104</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
         <v>105</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
         <v>107</v>
       </c>
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
       <c r="D44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
         <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
         <v>109</v>
       </c>
-      <c r="C45" t="s">
-        <v>110</v>
-      </c>
       <c r="D45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
         <v>97</v>
-      </c>
-      <c r="E45" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
         <v>97</v>
-      </c>
-      <c r="E46" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" t="s">
         <v>97</v>
-      </c>
-      <c r="E47" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
         <v>114</v>
-      </c>
-      <c r="E48" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
         <v>116</v>
       </c>
-      <c r="C49" t="s">
-        <v>117</v>
-      </c>
       <c r="D49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
         <v>114</v>
-      </c>
-      <c r="E49" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" t="s">
         <v>114</v>
-      </c>
-      <c r="E50" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
         <v>119</v>
       </c>
-      <c r="C51" t="s">
-        <v>120</v>
-      </c>
       <c r="D51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" t="s">
         <v>114</v>
-      </c>
-      <c r="E51" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
         <v>121</v>
       </c>
-      <c r="C52" t="s">
-        <v>122</v>
-      </c>
       <c r="D52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" t="s">
         <v>114</v>
-      </c>
-      <c r="E52" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
         <v>123</v>
       </c>
-      <c r="C53" t="s">
-        <v>124</v>
-      </c>
       <c r="D53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" t="s">
         <v>114</v>
-      </c>
-      <c r="E53" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" t="s">
         <v>126</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" t="s">
         <v>128</v>
-      </c>
-      <c r="E54" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
         <v>130</v>
       </c>
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
       <c r="D55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
         <v>128</v>
-      </c>
-      <c r="E55" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
         <v>132</v>
       </c>
-      <c r="C56" t="s">
-        <v>133</v>
-      </c>
       <c r="D56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
         <v>128</v>
-      </c>
-      <c r="E56" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s">
         <v>134</v>
       </c>
-      <c r="C57" t="s">
-        <v>135</v>
-      </c>
       <c r="D57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
         <v>128</v>
-      </c>
-      <c r="E57" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
         <v>136</v>
       </c>
-      <c r="C58" t="s">
-        <v>137</v>
-      </c>
       <c r="D58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
         <v>128</v>
-      </c>
-      <c r="E58" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
         <v>138</v>
       </c>
-      <c r="C59" t="s">
-        <v>139</v>
-      </c>
       <c r="D59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
         <v>128</v>
-      </c>
-      <c r="E59" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
         <v>140</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
         <v>143</v>
       </c>
-      <c r="C61" t="s">
-        <v>144</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
         <v>53</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
         <v>147</v>
       </c>
-      <c r="C64" t="s">
-        <v>148</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" t="s">
         <v>149</v>
       </c>
-      <c r="C65" t="s">
-        <v>150</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
         <v>151</v>
       </c>
-      <c r="C66" t="s">
-        <v>152</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="s">
         <v>153</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" t="s">
         <v>155</v>
-      </c>
-      <c r="E67" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
         <v>157</v>
       </c>
-      <c r="C68" t="s">
-        <v>158</v>
-      </c>
       <c r="D68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" t="s">
         <v>155</v>
-      </c>
-      <c r="E68" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
         <v>159</v>
       </c>
-      <c r="C69" t="s">
-        <v>160</v>
-      </c>
       <c r="D69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
         <v>155</v>
-      </c>
-      <c r="E69" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
         <v>161</v>
       </c>
-      <c r="C70" t="s">
-        <v>162</v>
-      </c>
       <c r="D70" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" t="s">
         <v>155</v>
-      </c>
-      <c r="E70" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
         <v>163</v>
       </c>
-      <c r="C71" t="s">
-        <v>164</v>
-      </c>
       <c r="D71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s">
         <v>155</v>
-      </c>
-      <c r="E71" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
         <v>165</v>
       </c>
-      <c r="C72" t="s">
-        <v>166</v>
-      </c>
       <c r="D72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" t="s">
         <v>155</v>
-      </c>
-      <c r="E72" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
         <v>167</v>
       </c>
-      <c r="C73" t="s">
-        <v>168</v>
-      </c>
       <c r="D73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" t="s">
         <v>155</v>
-      </c>
-      <c r="E73" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s">
         <v>169</v>
       </c>
-      <c r="C74" t="s">
-        <v>170</v>
-      </c>
       <c r="D74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" t="s">
         <v>155</v>
-      </c>
-      <c r="E74" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" t="s">
         <v>171</v>
       </c>
-      <c r="C75" t="s">
-        <v>172</v>
-      </c>
       <c r="D75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" t="s">
         <v>155</v>
-      </c>
-      <c r="E75" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
         <v>173</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" t="s">
         <v>175</v>
-      </c>
-      <c r="E76" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
         <v>177</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" t="s">
         <v>179</v>
-      </c>
-      <c r="E77" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" t="s">
         <v>181</v>
       </c>
-      <c r="C78" t="s">
-        <v>182</v>
-      </c>
       <c r="D78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" t="s">
         <v>179</v>
-      </c>
-      <c r="E78" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" t="s">
         <v>183</v>
-      </c>
-      <c r="C79" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" t="s">
         <v>185</v>
-      </c>
-      <c r="C80" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
-      </c>
-      <c r="C81" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
         <v>189</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" t="s">
         <v>191</v>
-      </c>
-      <c r="E82" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
         <v>193</v>
       </c>
-      <c r="C83" t="s">
-        <v>194</v>
-      </c>
       <c r="D83" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E83" t="s">
         <v>191</v>
-      </c>
-      <c r="E83" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
-      </c>
-      <c r="D84" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E84" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
         <v>199</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="E85" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5">
+        <v>125710976678</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" t="s">
         <v>201</v>
-      </c>
-      <c r="C86" t="s">
-        <v>202</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E86" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E88" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
-        <v>208</v>
+      <c r="B89" s="5">
+        <v>695544811049</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" t="s">
         <v>211</v>
       </c>
-      <c r="C91" t="s">
-        <v>212</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E94" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E96" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" t="s">
         <v>225</v>
-      </c>
-      <c r="C97" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E97" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C98" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" t="s">
         <v>233</v>
-      </c>
-      <c r="C100" t="s">
-        <v>234</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E100" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" t="s">
         <v>235</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>240</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" t="s">
         <v>242</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" t="s">
         <v>244</v>
-      </c>
-      <c r="E103" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" t="s">
         <v>246</v>
-      </c>
-      <c r="C104" t="s">
-        <v>247</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E104" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
+        <v>250</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E106" t="s">
         <v>252</v>
-      </c>
-      <c r="C106" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" t="s">
         <v>254</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" t="s">
         <v>256</v>
-      </c>
-      <c r="E107" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" t="s">
         <v>258</v>
-      </c>
-      <c r="C108" t="s">
-        <v>259</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E108" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E109" t="s">
         <v>262</v>
-      </c>
-      <c r="C109" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" t="s">
         <v>264</v>
       </c>
-      <c r="C110" t="s">
-        <v>265</v>
-      </c>
       <c r="D110" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E110" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C111" t="s">
+        <v>266</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E111" t="s">
         <v>268</v>
-      </c>
-      <c r="C111" t="s">
-        <v>269</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E111" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" t="s">
         <v>270</v>
       </c>
-      <c r="C112" t="s">
-        <v>271</v>
-      </c>
       <c r="D112" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C113" t="s">
-        <v>275</v>
-      </c>
-      <c r="D113" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E113" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C114" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C115" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C116" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C117" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C118" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E119" t="s">
-        <v>61</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>286</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E120" t="s">
         <v>288</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3022,277 +3104,493 @@
         <v>291</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E121" t="s">
-        <v>293</v>
-      </c>
-      <c r="F121" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C122" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E122" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E123" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C124" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E124" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E125" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>304</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E126" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C127" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C128" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C129" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B130" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C130" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C131" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C132" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C133" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C134" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C135" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C136" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B138" s="4" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C139" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>327</v>
+      </c>
+      <c r="B140" s="5">
+        <v>170744924094</v>
+      </c>
+      <c r="C140" t="s">
         <v>328</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D140" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E140" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="4" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="5">
+        <v>728009587795</v>
+      </c>
+      <c r="C141" t="s">
         <v>330</v>
       </c>
-      <c r="C140" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>332</v>
-      </c>
-      <c r="B141" s="5">
-        <v>170744924094</v>
-      </c>
-      <c r="C141" t="s">
-        <v>333</v>
-      </c>
       <c r="D141" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E141" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B142" s="5">
-        <v>728009587795</v>
+        <v>941677598037</v>
       </c>
       <c r="C142" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E142" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B143" s="5">
-        <v>941677598037</v>
+        <v>579201838494</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E143" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B144" s="5">
-        <v>579201838494</v>
+        <v>560428933869</v>
       </c>
       <c r="C144" t="s">
+        <v>333</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E144" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>336</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C145" t="s">
         <v>337</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D145" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E145" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>336</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C146" t="s">
         <v>339</v>
       </c>
-      <c r="E144" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="5">
-        <v>560428933869</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="D146" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E146" t="s">
         <v>338</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E145" t="s">
-        <v>334</v>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>336</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C147" t="s">
+        <v>340</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E147" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>352</v>
+      </c>
+      <c r="B148" s="5">
+        <v>730335593227</v>
+      </c>
+      <c r="C148" t="s">
+        <v>345</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E148" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149" s="5">
+        <v>695544811049</v>
+      </c>
+      <c r="C149" t="s">
+        <v>347</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E149" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>352</v>
+      </c>
+      <c r="B150" s="5">
+        <v>646169823279</v>
+      </c>
+      <c r="C150" t="s">
+        <v>348</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E150" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="5">
+        <v>979115155993</v>
+      </c>
+      <c r="C151" t="s">
+        <v>349</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E151" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="5">
+        <v>103441328247</v>
+      </c>
+      <c r="C152" t="s">
+        <v>350</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E152" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>352</v>
+      </c>
+      <c r="B153" s="5">
+        <v>53678098104</v>
+      </c>
+      <c r="C153" t="s">
+        <v>195</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E153" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>352</v>
+      </c>
+      <c r="B154" s="5">
+        <v>559050251617</v>
+      </c>
+      <c r="C154" t="s">
+        <v>351</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E154" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>362</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>362</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>362</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>362</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>362</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>362</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>362</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D41" r:id="rId1" xr:uid="{DF273828-6A49-EA43-9335-A5EBEF245073}"/>
-    <hyperlink ref="D100" r:id="rId2" xr:uid="{329FED7F-47D1-3549-B2C9-0FA567100759}"/>
-    <hyperlink ref="D99" r:id="rId3" xr:uid="{0173A0A0-0FF5-1D4C-8BAE-411F0C33C93C}"/>
-    <hyperlink ref="D98" r:id="rId4" xr:uid="{15EA03BF-2AB5-BF44-9725-85693FCCA5C9}"/>
-    <hyperlink ref="D97" r:id="rId5" xr:uid="{F0EC2A9A-68A6-234C-BA5E-A838A525542A}"/>
+    <hyperlink ref="D99" r:id="rId2" xr:uid="{329FED7F-47D1-3549-B2C9-0FA567100759}"/>
+    <hyperlink ref="D98" r:id="rId3" xr:uid="{0173A0A0-0FF5-1D4C-8BAE-411F0C33C93C}"/>
+    <hyperlink ref="D97" r:id="rId4" xr:uid="{15EA03BF-2AB5-BF44-9725-85693FCCA5C9}"/>
+    <hyperlink ref="D96" r:id="rId5" xr:uid="{F0EC2A9A-68A6-234C-BA5E-A838A525542A}"/>
+    <hyperlink ref="D148" r:id="rId6" xr:uid="{0036CB5B-F9F7-E249-A674-E8BAAEFD55A5}"/>
+    <hyperlink ref="D149" r:id="rId7" xr:uid="{6568ED06-F542-FB4C-92A2-FE2C94A6003B}"/>
+    <hyperlink ref="D150" r:id="rId8" xr:uid="{49CA7118-43CD-6C44-8D7B-485210ADE03B}"/>
+    <hyperlink ref="D151" r:id="rId9" xr:uid="{2253C74F-8AAC-614F-8FCC-40B91478CB88}"/>
+    <hyperlink ref="D152" r:id="rId10" xr:uid="{E4D12A16-15B1-504F-8E8B-F9A6ADAEC0C8}"/>
+    <hyperlink ref="D153" r:id="rId11" xr:uid="{B34A3C9F-64B3-284F-8724-09A216B3A2B2}"/>
+    <hyperlink ref="D154" r:id="rId12" xr:uid="{1F303EB7-FC7F-1C4B-A5E0-662B9A999DDF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
